--- a/input_translate.xlsx
+++ b/input_translate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">original</t>
   </si>
@@ -148,6 +148,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우리를 죽이지 않는 것은 우리를 더 강하게 만든다</t>
     </r>
@@ -242,6 +243,12 @@
   </si>
   <si>
     <t xml:space="preserve">Life is like a box of chocolates. You never know what you will get.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dahab al-thaalib al-bunni sarie abr al-ghaba lajalab shaheb minn al-maa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ذهب الثعلب البني السريع عبر الغابة لجلب شاحب من الماء</t>
   </si>
 </sst>
 </file>
@@ -288,6 +295,7 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -390,10 +398,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.18"/>
@@ -637,6 +645,16 @@
       </c>
       <c r="E17" s="0" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/input_translate.xlsx
+++ b/input_translate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">original</t>
   </si>
@@ -31,13 +31,10 @@
     <t xml:space="preserve">language</t>
   </si>
   <si>
-    <t xml:space="preserve">الثروة تفضل الجريء </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ذهب الثعلب البني السريع عبر الغابة لجلب شاحب من الماء</t>
+    <t xml:space="preserve">勇者有福</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese (Simplified)</t>
   </si>
   <si>
     <t xml:space="preserve">La fortune sourit aux audacieux.</t>
@@ -46,55 +43,49 @@
     <t xml:space="preserve">French</t>
   </si>
   <si>
+    <t xml:space="preserve">Das Glück begünstigt die Kühnen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">भाग्य साहसियों का साथ देता है </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fortuna aiuta gli audaci.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大胆に行く者は幸運を得る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sorte protege os audazes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удача любит смелых</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru</t>
+  </si>
+  <si>
     <t xml:space="preserve">La fortuna favorece a los valientes.</t>
   </si>
   <si>
     <t xml:space="preserve">Spanish</t>
   </si>
   <si>
-    <t xml:space="preserve">Das Glück begünstigt die Kühnen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">German</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La fortuna aiuta gli audaci.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sorte protege os audazes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portuguese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">勇者有福 (Yǒngzhě yǒu fú).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese (Simplified)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大胆に行く者は幸運を得る (Daitan ni iku mono wa kōun o eru).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удача любит смелых (Udacha lyubit smelykh).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحظ يحب الجريئين (Al-ḥaẓb yuḥibb al-jurieen).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">भाग्य साहसियों का साथ देता है (Bhagya saahasiyon ka saath deta hai).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindi</t>
+    <t xml:space="preserve">الحظ يحب الجريئين </t>
   </si>
 </sst>
 </file>
@@ -199,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,15 +203,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,19 +228,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="0" width="11.52"/>
@@ -274,7 +261,7 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
@@ -284,94 +271,81 @@
         <v>5</v>
       </c>
       <c r="B3" s="4"/>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/input_translate.xlsx
+++ b/input_translate.xlsx
@@ -20,39 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">english</t>
-  </si>
-  <si>
-    <t xml:space="preserve">language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">勇者有福</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+  <si>
+    <t xml:space="preserve">Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحظ يفضل الشجعان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幸運總是眷顧勇敢的人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese (Traditional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قسمت بہادروں کا ساتھ دیتی ہے۔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幸运总是眷顾勇敢的人</t>
   </si>
   <si>
     <t xml:space="preserve">Chinese (Simplified)</t>
   </si>
   <si>
+    <t xml:space="preserve">भाग्य वीरों को ही सहारा देता है</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fortune bhfabhar an cróga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fortune sourit aux audacieux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(217)555-1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행운은 용감한 자에게 유리하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">срећа прати храбре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аз нь зоригтой хүнд таалагддаг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lycka står den modiga bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">förmögenhet gynnar endast det förberedda sinnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Съдбата благосклонства само към подготвения ум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">η τύχη ευνοεί μόνο το προετοιμασμένο μυαλό</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">????</t>
+  </si>
+  <si>
     <t xml:space="preserve">La fortune sourit aux audacieux.</t>
   </si>
   <si>
-    <t xml:space="preserve">French</t>
-  </si>
-  <si>
     <t xml:space="preserve">Das Glück begünstigt die Kühnen.</t>
   </si>
   <si>
     <t xml:space="preserve">German</t>
   </si>
   <si>
-    <t xml:space="preserve">भाग्य साहसियों का साथ देता है </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindi</t>
+    <t xml:space="preserve">????? ???????? ?? ??? ???? ?? </t>
   </si>
   <si>
     <t xml:space="preserve">La fortuna aiuta gli audaci.</t>
@@ -61,10 +139,7 @@
     <t xml:space="preserve">Italian</t>
   </si>
   <si>
-    <t xml:space="preserve">大胆に行く者は幸運を得る</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese</t>
+    <t xml:space="preserve">????????????</t>
   </si>
   <si>
     <t xml:space="preserve">A sorte protege os audazes.</t>
@@ -73,10 +148,7 @@
     <t xml:space="preserve">Portuguese</t>
   </si>
   <si>
-    <t xml:space="preserve">Удача любит смелых</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ru</t>
+    <t xml:space="preserve">????? ????? ??????</t>
   </si>
   <si>
     <t xml:space="preserve">La fortuna favorece a los valientes.</t>
@@ -85,7 +157,13 @@
     <t xml:space="preserve">Spanish</t>
   </si>
   <si>
-    <t xml:space="preserve">الحظ يحب الجريئين </t>
+    <t xml:space="preserve">???? ??? ???????? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
   </si>
 </sst>
 </file>
@@ -96,7 +174,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,14 +198,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
@@ -135,33 +205,20 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -195,20 +252,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -228,122 +285,305 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="0" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="0" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="0" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="0" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/input_translate.xlsx
+++ b/input_translate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t xml:space="preserve">Original</t>
   </si>
@@ -182,6 +182,33 @@
   </si>
   <si>
     <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR (2175551212@s.whatsapp.net) added Jim Jones (2175551213@s.whatsapp.net owner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2175551212@s.whatsapp.net left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
   </si>
 </sst>
 </file>
@@ -311,17 +338,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="21.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="21.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.15"/>
@@ -717,7 +744,55 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
+    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A32" r:id="rId1" display="HR (2175551212@s.whatsapp.net) added Jim Jones (2175551213@s.whatsapp.net owner)"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
